--- a/Mobile Dev Test Plan.xlsx
+++ b/Mobile Dev Test Plan.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\londo\Documents\GitHub\CIS436-Notifs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB86948-7D67-4198-9589-061FB5DD6343}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70033F4F-7B51-4E79-8175-74BE9D197588}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 3 2019" sheetId="1" r:id="rId1"/>
-    <sheet name="3 14 2019" sheetId="2" r:id="rId2"/>
+    <sheet name="4 4 2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Test case plan</t>
   </si>
@@ -70,88 +70,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Android 8.0 (Phone/physical)</t>
-  </si>
-  <si>
     <t>Matt</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>Warrior stats screen</t>
-  </si>
-  <si>
-    <t>Select 1 star for each stat, expect "points left to spend" to be 6</t>
-  </si>
-  <si>
-    <t>Save any random combination of skills. Press the android back button, and reselect Warrior. The same skills should be reloaded</t>
-  </si>
-  <si>
-    <t>From an empty stat screen, set Strength and Intellect to 5 stars.  Try selecting a rating for wisdom. Expect a toast saying that wisdom exceeds the point limit.</t>
-  </si>
-  <si>
-    <t>From an empty stat screen, set Strength and Intellect to 5 stars.  Points left to spend should be zero.</t>
-  </si>
-  <si>
-    <t>Mage stats screen</t>
-  </si>
-  <si>
-    <t>Select 2 stars for each stat, expect "points left to spend" to be 2</t>
-  </si>
-  <si>
-    <t>From an empty stat screen, set Strength and Wisdom to 5 stars.  Try selecting a rating for intellect. Expect a toast saying that intellect exceeds the point limit.</t>
-  </si>
-  <si>
-    <t>From an empty stat screen, set Strength and Wisdom to 5 stars.  Try selecting a rating for intellect.  Points left to spend should be zero.</t>
-  </si>
-  <si>
-    <t>Save any random combination of skills. Press the android back button, and reselect Mage. The same skills should be reloaded.</t>
-  </si>
-  <si>
-    <t>Healer stats screen</t>
-  </si>
-  <si>
-    <t>From an empty stat screen, set Strength and Dexterity to 5 stars.  Try selecting a rating for intellect. Expect a toast saying that intellect exceeds the point limit.</t>
-  </si>
-  <si>
-    <t>Save any random combination of skills. Press the android back button, and reselect Healer. The same skills should be reloaded.</t>
-  </si>
-  <si>
-    <t>Hunter stats screen</t>
-  </si>
-  <si>
-    <t>Save any random combination of skills. Press the android back button, and reselect Hunter. The same skills should be reloaded.</t>
-  </si>
-  <si>
-    <t>Paladin stats screen</t>
-  </si>
-  <si>
-    <t>Save any random combination of skills. Press the android back button, and reselect Paladin. The same skills should be reloaded.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android 8.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LANDSCAPE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Tablet/Emulator)</t>
-    </r>
   </si>
   <si>
     <t>Android 8.0
@@ -159,16 +78,136 @@
   (Phone/physical)</t>
   </si>
   <si>
-    <t>Android 8.0
-API level 27
+    <t>Input  sanitization</t>
+  </si>
+  <si>
+    <t>Time &lt; 5</t>
+  </si>
+  <si>
+    <t>Toast shows</t>
+  </si>
+  <si>
+    <t>Android 9.0
+API level 28
   (Phone/Emulator)</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 4</t>
+  </si>
+  <si>
+    <t>Time &gt;120</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 125</t>
+  </si>
+  <si>
+    <t>Time % 5 != 0</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 36</t>
+  </si>
+  <si>
+    <t>Basic logic check</t>
+  </si>
+  <si>
+    <t>Valid input</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 30</t>
+  </si>
+  <si>
+    <t>Reset button appers, time textbox is diabled, spinner enables</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 30, select 20 highest notification, hit startcountdown with no message</t>
+  </si>
+  <si>
+    <t>Hit setcountdown when the input time is 30, select 20 highest notification, hit startcountdown with any message</t>
+  </si>
+  <si>
+    <t>Countdown started</t>
+  </si>
+  <si>
+    <t>Select 10 for time, attempt to select 10 for highest notif</t>
+  </si>
+  <si>
+    <t>impossible since it's exclusive, highest notif is 5</t>
+  </si>
+  <si>
+    <t>Main Logic check</t>
+  </si>
+  <si>
+    <t>1 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 5 for timer, 1 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 1 second and end of countdown</t>
+  </si>
+  <si>
+    <t>5 is highest notif</t>
+  </si>
+  <si>
+    <t>Notif rings at 5s, 1s and end of countdown</t>
+  </si>
+  <si>
+    <t>10 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 15 for timer, 10 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 10s, 5s, 1s and second and end of countdown</t>
+  </si>
+  <si>
+    <t>20 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 25 for timer, 20 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 20s, 10s, 5s, 1s and second and end of countdown</t>
+  </si>
+  <si>
+    <t>30 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 35 for timer, 30 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 30s, 20s, 10s, 5s, 1s and second and end of countdown</t>
+  </si>
+  <si>
+    <t>60 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 65 for timer, 60 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 60s, 30s, 20s, 10s, 5s, 1s and second and end of countdown</t>
+  </si>
+  <si>
+    <t>90 is highest notif</t>
+  </si>
+  <si>
+    <t>Select 100 for timer, 90 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Notif rings at 90s, 60s, 30s, 20s, 10s, 5s, 1s and second and end of countdown</t>
+  </si>
+  <si>
+    <t>Select 10 for timer, 5 highest notif, any message, start countdown</t>
+  </si>
+  <si>
+    <t>Select 100 for timer, 5 highest notif, any message, start countdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +245,6 @@
       <b/>
       <sz val="22"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -635,7 +667,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -723,28 +755,188 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,7 +971,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +1001,7 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>43538</v>
+        <v>43559</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -819,7 +1011,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -839,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -870,20 +1062,22 @@
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -892,22 +1086,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A27" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -916,22 +1112,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -940,22 +1138,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -966,20 +1166,22 @@
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -988,22 +1190,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -1012,22 +1216,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
@@ -1036,22 +1242,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
@@ -1060,257 +1268,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
